--- a/Icris.Excel2Api.Console/bin/Release/sheets/test.xlsx
+++ b/Icris.Excel2Api.Console/bin/Release/sheets/test.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A69871FA-7A2C-4C11-8F61-A0C3049AFED2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5153383B-239E-4E80-BE06-3FCB9AAB5D66}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
-    <sheet name="Process" sheetId="2" r:id="rId2"/>
+    <sheet name="burp" sheetId="2" r:id="rId2"/>
     <sheet name="Output" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -462,7 +462,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +559,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="b">
         <f t="shared" si="0"/>
@@ -607,7 +607,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +695,7 @@
       </c>
       <c r="C2">
         <f>Input!D2*Input!D3*2 + Input!D3*Input!D4*2+Input!D2*Input!D4*2</f>
-        <v>384</v>
+        <v>416</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -710,7 +710,7 @@
       </c>
       <c r="C3">
         <f>Input!D2*Input!D3*Input!D4</f>
-        <v>512</v>
+        <v>576</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -725,7 +725,7 @@
       </c>
       <c r="C4">
         <f>(Input!D2+Input!D3+Input!D4)*4</f>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -739,8 +739,8 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <f>VLOOKUP(Input!D5,Process!A2:B5,2)*C3/1000</f>
-        <v>4.0294400000000001</v>
+        <f>((VLOOKUP(Input!D5,burp!A2:B5,2,FALSE))*C3)/1000</f>
+        <v>4.5331200000000003</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
